--- a/NopCommerce/DataExcel/db_cart.xlsx
+++ b/NopCommerce/DataExcel/db_cart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KATALON DRIVE\Katalon Project NOPCommerce\NopCommerce\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C062B-3930-48A1-9C6B-9FD241C02621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC382DC-B4C2-4F75-941B-9F17860A8F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="3090" windowWidth="11800" windowHeight="7110" xr2:uid="{BAD62884-383D-42CA-991A-284DA56CD5DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAD62884-383D-42CA-991A-284DA56CD5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,6 +455,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
